--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_5935.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_5935.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>5935</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Akeal Jerome Hosein</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Orthodox</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4443</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4445</t>
+          <t>4445</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4447</t>
+          <t>4447</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -648,7 +713,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>10/03/2021</t>
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4449</t>
+          <t>4449</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -696,7 +760,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>12/03/2021</t>
@@ -704,7 +767,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4450</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -744,7 +807,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>14/03/2021</t>
@@ -752,7 +814,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4451</t>
+          <t>4451</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -804,7 +866,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4483</t>
+          <t>4483</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -844,7 +906,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>24/07/2021</t>
@@ -852,7 +913,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4484</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -904,7 +965,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4486</t>
+          <t>4486</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -956,7 +1017,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4519</t>
+          <t>4519</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1008,7 +1069,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4520</t>
+          <t>4520</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1060,7 +1121,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4522</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1112,7 +1173,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4533</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1164,7 +1225,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4535</t>
+          <t>4535</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1204,7 +1265,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>31/05/2022</t>
@@ -1212,7 +1272,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4577</t>
+          <t>4577</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1252,7 +1312,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>02/06/2022</t>
@@ -1260,7 +1319,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4580</t>
+          <t>4580</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1312,7 +1371,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4583</t>
+          <t>4583</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1364,7 +1423,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4586</t>
+          <t>4586</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1416,7 +1475,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4590</t>
+          <t>4590</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1468,7 +1527,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4592</t>
+          <t>4592</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1520,7 +1579,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4606</t>
+          <t>4606</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1572,7 +1631,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4611</t>
+          <t>4611</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1624,7 +1683,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4616</t>
+          <t>4616</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1676,7 +1735,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4621</t>
+          <t>4621</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1728,7 +1787,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4623</t>
+          <t>4623</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1780,7 +1839,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4624</t>
+          <t>4624</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1820,7 +1879,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>17/08/2022</t>
@@ -1828,7 +1886,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4636</t>
+          <t>4636</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1880,7 +1938,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4639</t>
+          <t>4639</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1932,7 +1990,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4642</t>
+          <t>4642</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1984,7 +2042,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4727</t>
+          <t>4727</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2036,7 +2094,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4731</t>
+          <t>4731</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2075,7 +2133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2097,7 +2155,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2134,7 +2192,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4443</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2171,7 +2229,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4445</t>
+          <t>4445</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2208,7 +2266,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4447</t>
+          <t>4447</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2245,7 +2303,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4449</t>
+          <t>4449</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2282,7 +2340,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4450</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2319,7 +2377,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4451</t>
+          <t>4451</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2356,7 +2414,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4483</t>
+          <t>4483</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2393,7 +2451,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4484</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2430,7 +2488,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4486</t>
+          <t>4486</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2467,7 +2525,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4519</t>
+          <t>4519</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2504,7 +2562,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4520</t>
+          <t>4520</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2541,7 +2599,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4522</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2578,7 +2636,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4533</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2615,7 +2673,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4535</t>
+          <t>4535</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2652,7 +2710,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4577</t>
+          <t>4577</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2689,7 +2747,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4580</t>
+          <t>4580</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2726,7 +2784,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4583</t>
+          <t>4583</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2763,7 +2821,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4586</t>
+          <t>4586</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2800,7 +2858,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4590</t>
+          <t>4590</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2837,7 +2895,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4592</t>
+          <t>4592</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2874,7 +2932,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4606</t>
+          <t>4606</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2911,7 +2969,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4611</t>
+          <t>4611</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2948,7 +3006,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4616</t>
+          <t>4616</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2985,7 +3043,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4621</t>
+          <t>4621</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3022,7 +3080,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4623</t>
+          <t>4623</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3059,7 +3117,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4624</t>
+          <t>4624</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3096,7 +3154,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4636</t>
+          <t>4636</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3133,7 +3191,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4639</t>
+          <t>4639</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3170,7 +3228,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4642</t>
+          <t>4642</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3207,7 +3265,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4727</t>
+          <t>4727</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3244,7 +3302,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4731</t>
+          <t>4731</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3272,6 +3330,497 @@
           <t>2/49</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4522</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4533</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4535</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>17.62%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4577</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.97%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4580</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4583</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4586</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.78%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4590</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4592</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.85%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4606</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.56%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4611</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>10.49%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4616</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4621</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.73%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4623</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4624</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>6.83%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4636</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4639</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4642</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5.38%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4727</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4731</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_5935.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_5935.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3388,15 +3389,439 @@
           <t>4522</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4533</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4535</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>17.62%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4577</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.97%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4580</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4583</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4586</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.78%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4590</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4592</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.85%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4606</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.56%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4611</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>10.49%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4616</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4621</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.73%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4623</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4624</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>6.83%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4636</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4639</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4642</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5.38%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4727</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4731</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4522</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3406,13 +3831,6 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3420,27 +3838,14 @@
           <t>4535</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>7</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>17.62%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3450,27 +3855,14 @@
           <t>4577</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>6</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.97%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3480,13 +3872,14 @@
           <t>4580</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -3496,13 +3889,14 @@
           <t>4583</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3512,29 +3906,8 @@
           <t>4586</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>27.78%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3544,13 +3917,6 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3558,27 +3924,14 @@
           <t>4592</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>7</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.85%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3588,29 +3941,8 @@
           <t>4606</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.56%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3618,29 +3950,12 @@
           <t>4611</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>10.49%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3648,15 +3963,12 @@
           <t>4616</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3664,27 +3976,14 @@
           <t>4621</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>8</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.73%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3694,17 +3993,8 @@
           <t>4623</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3712,27 +4002,14 @@
           <t>4624</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>9</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>6.83%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3742,13 +4019,14 @@
           <t>4636</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -3758,13 +4036,14 @@
           <t>4639</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3774,29 +4053,8 @@
           <t>4642</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>5.38%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3806,9 +4064,6 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3816,11 +4071,16 @@
           <t>4731</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_5935.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_5935.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -714,6 +712,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>10/03/2021</t>
@@ -761,6 +760,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>12/03/2021</t>
@@ -808,6 +808,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>14/03/2021</t>
@@ -907,6 +908,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>24/07/2021</t>
@@ -1266,6 +1268,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>31/05/2022</t>
@@ -1313,6 +1316,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>02/06/2022</t>
@@ -1880,6 +1884,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>17/08/2022</t>
@@ -3335,754 +3340,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4522</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4533</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4535</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>17.62%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4577</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.97%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4580</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4583</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4586</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>27.78%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4590</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4592</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.85%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4606</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.56%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4611</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>10.49%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4616</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4621</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>8</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.73%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4623</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4624</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>9</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>6.83%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4636</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4639</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4642</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>5.38%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4727</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4731</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4522</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4533</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4535</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4577</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4580</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4583</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4586</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4590</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4592</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4606</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4611</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4616</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4621</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4623</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4624</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4636</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4639</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4642</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4727</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4731</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>